--- a/1test_keis.xlsx
+++ b/1test_keis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
   <si>
     <t>Номер</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t xml:space="preserve">1. Ввести какие-то буквы рандомно, не соответсвующие какой-либо стране </t>
+  </si>
+  <si>
+    <t>1.</t>
   </si>
 </sst>
 </file>
@@ -641,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,8 +673,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
+      <c r="A2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>13</v>
